--- a/error_rankings/biodivner/new_categories_full_prompts_small_models_error_counts.xlsx
+++ b/error_rankings/biodivner/new_categories_full_prompts_small_models_error_counts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,12 +512,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>area</t>
+          <t>plant biomass</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUALITY</t>
+          <t>MATTERMATTER</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -530,12 +530,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>plant biomass</t>
+          <t>tree richness</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MATTERMATTER</t>
+          <t>TREE</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -548,36 +548,18 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tree richness</t>
+          <t>tree species</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TREE</t>
+          <t>ORGANSIM</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>tree species</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ORGANSIM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
         <v>0.08333333333333333</v>
       </c>
     </row>
